--- a/biology/Biologie cellulaire et moléculaire/Érosion_génétique/Érosion_génétique.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Érosion_génétique/Érosion_génétique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89rosion_g%C3%A9n%C3%A9tique</t>
+          <t>Érosion_génétique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'érosion génétique est la perte de diversité génétique entre et dans des populations au fil du temps, due à l'intervention humaine ou des modifications de l'environnement.
 Selon la FAO, le remplacement de variétés locales par des variétés améliorées ou exotiques est la principale cause de l'érosion génétique dans le monde.
